--- a/metrics/R2/average time/Infarto de Miocardio.xlsx
+++ b/metrics/R2/average time/Infarto de Miocardio.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9273994992496646</v>
+        <v>0.9165310416313422</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9273994992496646</v>
+        <v>0.9165310416313422</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9273994992496646</v>
+        <v>0.9165310416313422</v>
       </c>
     </row>
     <row r="3">
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9980694138100193</v>
+        <v>0.9974061493975146</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9978908348765567</v>
+        <v>0.9975374229618884</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9979480045405781</v>
+        <v>0.9978019722783986</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.998089854380492</v>
+        <v>0.9978172665327705</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9980989699164349</v>
+        <v>0.9978272528146764</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9981183460132349</v>
+        <v>0.9978172000710348</v>
       </c>
     </row>
     <row r="5">
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9873979036484962</v>
+        <v>0.9864603744437003</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9890721923291562</v>
+        <v>0.9881021604463814</v>
       </c>
       <c r="D5" t="n">
-        <v>0.988801444691627</v>
+        <v>0.9874163218065511</v>
       </c>
     </row>
   </sheetData>
